--- a/belg/forecasts_20200501.xlsx
+++ b/belg/forecasts_20200501.xlsx
@@ -80,169 +80,169 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">5652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5900</t>
+    <t xml:space="preserve">1257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1292</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">5943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6302</t>
+    <t xml:space="preserve">1311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1360</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">6485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6973</t>
+    <t xml:space="preserve">1443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1509</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">6881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7485</t>
+    <t xml:space="preserve">1557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1637</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">7214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7910</t>
+    <t xml:space="preserve">1737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1839</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">7541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8342</t>
+    <t xml:space="preserve">1795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1917</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">7833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8734</t>
+    <t xml:space="preserve">1948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2089</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">8048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9030</t>
+    <t xml:space="preserve">2080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2253</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">8319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9392</t>
+    <t xml:space="preserve">2193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2382</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">8576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9811</t>
+    <t xml:space="preserve">2360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2569</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">8788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10110</t>
+    <t xml:space="preserve">2547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2799</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">8984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10427</t>
+    <t xml:space="preserve">2810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3083</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">9144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10616</t>
+    <t xml:space="preserve">2952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3246</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">9379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10960</t>
+    <t xml:space="preserve">3193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3531</t>
   </si>
 </sst>
 </file>
@@ -653,34 +653,34 @@
         <v>43953</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>79770</v>
+        <v>19177</v>
       </c>
       <c r="E2" t="n">
-        <v>77785</v>
+        <v>18691</v>
       </c>
       <c r="F2" t="n">
-        <v>81976</v>
+        <v>19701</v>
       </c>
       <c r="G2" t="n">
-        <v>5651</v>
+        <v>1446</v>
       </c>
       <c r="H2" t="n">
-        <v>3666</v>
+        <v>960</v>
       </c>
       <c r="I2" t="n">
-        <v>7857</v>
+        <v>1970</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0762</v>
+        <v>0.0816</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0495</v>
+        <v>0.0541</v>
       </c>
       <c r="L2" t="n">
-        <v>0.106</v>
+        <v>0.1111</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -692,22 +692,22 @@
         <v>24</v>
       </c>
       <c r="P2" t="n">
-        <v>458</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="n">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="R2" t="n">
-        <v>706</v>
+        <v>95</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0881</v>
+        <v>0.0499</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0458</v>
+        <v>0.0243</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1358</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="3">
@@ -718,34 +718,34 @@
         <v>43954</v>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>84232</v>
+        <v>20970</v>
       </c>
       <c r="E3" t="n">
-        <v>80982</v>
+        <v>20235</v>
       </c>
       <c r="F3" t="n">
-        <v>87204</v>
+        <v>21748</v>
       </c>
       <c r="G3" t="n">
-        <v>4462</v>
+        <v>1792</v>
       </c>
       <c r="H3" t="n">
-        <v>2182</v>
+        <v>1248</v>
       </c>
       <c r="I3" t="n">
-        <v>6779</v>
+        <v>2314</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0559</v>
+        <v>0.0935</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0274</v>
+        <v>0.0651</v>
       </c>
       <c r="L3" t="n">
-        <v>0.085</v>
+        <v>0.1206</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -757,22 +757,22 @@
         <v>28</v>
       </c>
       <c r="P3" t="n">
-        <v>292</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="R3" t="n">
-        <v>528</v>
+        <v>87</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0516</v>
+        <v>0.0428</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0095</v>
+        <v>0.0173</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0935</v>
+        <v>0.0693</v>
       </c>
     </row>
     <row r="4">
@@ -783,34 +783,34 @@
         <v>43955</v>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>90596</v>
+        <v>23938</v>
       </c>
       <c r="E4" t="n">
-        <v>86199</v>
+        <v>22933</v>
       </c>
       <c r="F4" t="n">
-        <v>94949</v>
+        <v>25048</v>
       </c>
       <c r="G4" t="n">
-        <v>6364</v>
+        <v>2968</v>
       </c>
       <c r="H4" t="n">
-        <v>3835</v>
+        <v>2380</v>
       </c>
       <c r="I4" t="n">
-        <v>8875</v>
+        <v>3603</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0756</v>
+        <v>0.1415</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0455</v>
+        <v>0.1135</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1054</v>
+        <v>0.1718</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -822,22 +822,22 @@
         <v>32</v>
       </c>
       <c r="P4" t="n">
-        <v>541</v>
+        <v>133</v>
       </c>
       <c r="Q4" t="n">
-        <v>293</v>
+        <v>91</v>
       </c>
       <c r="R4" t="n">
-        <v>804</v>
+        <v>168</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0911</v>
+        <v>0.1011</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0493</v>
+        <v>0.0696</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1353</v>
+        <v>0.1284</v>
       </c>
     </row>
     <row r="5">
@@ -848,34 +848,34 @@
         <v>43956</v>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>96269</v>
+        <v>26529</v>
       </c>
       <c r="E5" t="n">
-        <v>91436</v>
+        <v>25188</v>
       </c>
       <c r="F5" t="n">
-        <v>101519</v>
+        <v>27993</v>
       </c>
       <c r="G5" t="n">
-        <v>5673</v>
+        <v>2591</v>
       </c>
       <c r="H5" t="n">
-        <v>3199</v>
+        <v>1980</v>
       </c>
       <c r="I5" t="n">
-        <v>8277</v>
+        <v>3339</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0626</v>
+        <v>0.1083</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0353</v>
+        <v>0.0827</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0914</v>
+        <v>0.1395</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -887,22 +887,22 @@
         <v>36</v>
       </c>
       <c r="P5" t="n">
-        <v>396</v>
+        <v>114</v>
       </c>
       <c r="Q5" t="n">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="R5" t="n">
-        <v>667</v>
+        <v>155</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0611</v>
+        <v>0.0792</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0188</v>
+        <v>0.0499</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1029</v>
+        <v>0.1071</v>
       </c>
     </row>
     <row r="6">
@@ -913,34 +913,34 @@
         <v>43957</v>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>101262</v>
+        <v>30143</v>
       </c>
       <c r="E6" t="n">
-        <v>95423</v>
+        <v>28494</v>
       </c>
       <c r="F6" t="n">
-        <v>107378</v>
+        <v>31981</v>
       </c>
       <c r="G6" t="n">
-        <v>4993</v>
+        <v>3614</v>
       </c>
       <c r="H6" t="n">
-        <v>2243</v>
+        <v>2834</v>
       </c>
       <c r="I6" t="n">
-        <v>7740</v>
+        <v>4468</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0519</v>
+        <v>0.1362</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0233</v>
+        <v>0.1068</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0804</v>
+        <v>0.1684</v>
       </c>
       <c r="M6" t="s">
         <v>38</v>
@@ -952,22 +952,22 @@
         <v>40</v>
       </c>
       <c r="P6" t="n">
-        <v>333</v>
+        <v>179</v>
       </c>
       <c r="Q6" t="n">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="R6" t="n">
-        <v>607</v>
+        <v>229</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0484</v>
+        <v>0.1151</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0084</v>
+        <v>0.088</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0882</v>
+        <v>0.1469</v>
       </c>
     </row>
     <row r="7">
@@ -978,34 +978,34 @@
         <v>43958</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>106035</v>
+        <v>32434</v>
       </c>
       <c r="E7" t="n">
-        <v>99213</v>
+        <v>30437</v>
       </c>
       <c r="F7" t="n">
-        <v>112764</v>
+        <v>34814</v>
       </c>
       <c r="G7" t="n">
-        <v>4773</v>
+        <v>2291</v>
       </c>
       <c r="H7" t="n">
-        <v>1909</v>
+        <v>1485</v>
       </c>
       <c r="I7" t="n">
-        <v>7512</v>
+        <v>3195</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0471</v>
+        <v>0.076</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0188</v>
+        <v>0.0493</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0742</v>
+        <v>0.106</v>
       </c>
       <c r="M7" t="s">
         <v>42</v>
@@ -1017,22 +1017,22 @@
         <v>44</v>
       </c>
       <c r="P7" t="n">
-        <v>328</v>
+        <v>58</v>
       </c>
       <c r="Q7" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="R7" t="n">
-        <v>650</v>
+        <v>109</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0454</v>
+        <v>0.0334</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0059</v>
+        <v>0.0082</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0901</v>
+        <v>0.0627</v>
       </c>
     </row>
     <row r="8">
@@ -1043,34 +1043,34 @@
         <v>43959</v>
       </c>
       <c r="C8" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D8" t="n">
-        <v>110346</v>
+        <v>36747</v>
       </c>
       <c r="E8" t="n">
-        <v>102774</v>
+        <v>34383</v>
       </c>
       <c r="F8" t="n">
-        <v>117875</v>
+        <v>39599</v>
       </c>
       <c r="G8" t="n">
-        <v>4311</v>
+        <v>4313</v>
       </c>
       <c r="H8" t="n">
-        <v>1319</v>
+        <v>3289</v>
       </c>
       <c r="I8" t="n">
-        <v>7192</v>
+        <v>5379</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0407</v>
+        <v>0.133</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0124</v>
+        <v>0.1014</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0678</v>
+        <v>0.1658</v>
       </c>
       <c r="M8" t="s">
         <v>46</v>
@@ -1082,22 +1082,22 @@
         <v>48</v>
       </c>
       <c r="P8" t="n">
-        <v>291</v>
+        <v>153</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="R8" t="n">
-        <v>593</v>
+        <v>207</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0386</v>
+        <v>0.0852</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0005</v>
+        <v>0.0572</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0786</v>
+        <v>0.1155</v>
       </c>
     </row>
     <row r="9">
@@ -1108,34 +1108,34 @@
         <v>43960</v>
       </c>
       <c r="C9" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D9" t="n">
-        <v>113769</v>
+        <v>40842</v>
       </c>
       <c r="E9" t="n">
-        <v>105654</v>
+        <v>37971</v>
       </c>
       <c r="F9" t="n">
-        <v>121975</v>
+        <v>44122</v>
       </c>
       <c r="G9" t="n">
-        <v>3423</v>
+        <v>4095</v>
       </c>
       <c r="H9" t="n">
-        <v>342</v>
+        <v>3024</v>
       </c>
       <c r="I9" t="n">
-        <v>6530</v>
+        <v>5232</v>
       </c>
       <c r="J9" t="n">
-        <v>0.031</v>
+        <v>0.1114</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0031</v>
+        <v>0.0823</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0592</v>
+        <v>0.1424</v>
       </c>
       <c r="M9" t="s">
         <v>50</v>
@@ -1147,22 +1147,22 @@
         <v>52</v>
       </c>
       <c r="P9" t="n">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="R9" t="n">
-        <v>558</v>
+        <v>192</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0275</v>
+        <v>0.0682</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.0419</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0713</v>
+        <v>0.0987</v>
       </c>
     </row>
     <row r="10">
@@ -1173,34 +1173,34 @@
         <v>43961</v>
       </c>
       <c r="C10" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D10" t="n">
-        <v>117334</v>
+        <v>45219</v>
       </c>
       <c r="E10" t="n">
-        <v>108605</v>
+        <v>41925</v>
       </c>
       <c r="F10" t="n">
-        <v>126503</v>
+        <v>48905</v>
       </c>
       <c r="G10" t="n">
-        <v>3565</v>
+        <v>4376</v>
       </c>
       <c r="H10" t="n">
-        <v>287</v>
+        <v>3206</v>
       </c>
       <c r="I10" t="n">
-        <v>6530</v>
+        <v>5636</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0313</v>
+        <v>0.1072</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0025</v>
+        <v>0.0785</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0574</v>
+        <v>0.138</v>
       </c>
       <c r="M10" t="s">
         <v>54</v>
@@ -1212,22 +1212,22 @@
         <v>56</v>
       </c>
       <c r="P10" t="n">
-        <v>271</v>
+        <v>113</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R10" t="n">
-        <v>601</v>
+        <v>167</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0337</v>
+        <v>0.0541</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.0262</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0747</v>
+        <v>0.0801</v>
       </c>
     </row>
     <row r="11">
@@ -1238,34 +1238,34 @@
         <v>43962</v>
       </c>
       <c r="C11" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
-        <v>120946</v>
+        <v>51105</v>
       </c>
       <c r="E11" t="n">
-        <v>111491</v>
+        <v>47080</v>
       </c>
       <c r="F11" t="n">
-        <v>131350</v>
+        <v>55737</v>
       </c>
       <c r="G11" t="n">
-        <v>3612</v>
+        <v>5887</v>
       </c>
       <c r="H11" t="n">
-        <v>455</v>
+        <v>4523</v>
       </c>
       <c r="I11" t="n">
-        <v>7054</v>
+        <v>7267</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0308</v>
+        <v>0.1302</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0039</v>
+        <v>0.1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0601</v>
+        <v>0.1607</v>
       </c>
       <c r="M11" t="s">
         <v>58</v>
@@ -1277,22 +1277,22 @@
         <v>60</v>
       </c>
       <c r="P11" t="n">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="R11" t="n">
-        <v>600</v>
+        <v>232</v>
       </c>
       <c r="S11" t="n">
-        <v>0.031</v>
+        <v>0.0763</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.0495</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0721</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="12">
@@ -1303,34 +1303,34 @@
         <v>43963</v>
       </c>
       <c r="C12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>124123</v>
+        <v>58425</v>
       </c>
       <c r="E12" t="n">
-        <v>113944</v>
+        <v>53590</v>
       </c>
       <c r="F12" t="n">
-        <v>135721</v>
+        <v>63999</v>
       </c>
       <c r="G12" t="n">
-        <v>3177</v>
+        <v>7319</v>
       </c>
       <c r="H12" t="n">
-        <v>57</v>
+        <v>5772</v>
       </c>
       <c r="I12" t="n">
-        <v>6382</v>
+        <v>9001</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0263</v>
+        <v>0.1432</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0005</v>
+        <v>0.1129</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0528</v>
+        <v>0.1761</v>
       </c>
       <c r="M12" t="s">
         <v>62</v>
@@ -1342,22 +1342,22 @@
         <v>64</v>
       </c>
       <c r="P12" t="n">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="R12" t="n">
-        <v>581</v>
+        <v>262</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0247</v>
+        <v>0.0792</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.0528</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0678</v>
+        <v>0.1109</v>
       </c>
     </row>
     <row r="13">
@@ -1368,34 +1368,34 @@
         <v>43964</v>
       </c>
       <c r="C13" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D13" t="n">
-        <v>126837</v>
+        <v>66640</v>
       </c>
       <c r="E13" t="n">
-        <v>115786</v>
+        <v>61047</v>
       </c>
       <c r="F13" t="n">
-        <v>138729</v>
+        <v>72821</v>
       </c>
       <c r="G13" t="n">
-        <v>2714</v>
+        <v>8215</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6437</v>
       </c>
       <c r="I13" t="n">
-        <v>6200</v>
+        <v>10187</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0219</v>
+        <v>0.1406</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.1102</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05</v>
+        <v>0.1744</v>
       </c>
       <c r="M13" t="s">
         <v>66</v>
@@ -1407,22 +1407,22 @@
         <v>68</v>
       </c>
       <c r="P13" t="n">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="R13" t="n">
-        <v>543</v>
+        <v>342</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0223</v>
+        <v>0.1032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.0713</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0618</v>
+        <v>0.1342</v>
       </c>
     </row>
     <row r="14">
@@ -1433,34 +1433,34 @@
         <v>43965</v>
       </c>
       <c r="C14" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D14" t="n">
-        <v>129333</v>
+        <v>74284</v>
       </c>
       <c r="E14" t="n">
-        <v>118092</v>
+        <v>67559</v>
       </c>
       <c r="F14" t="n">
-        <v>142434</v>
+        <v>81555</v>
       </c>
       <c r="G14" t="n">
-        <v>2496</v>
+        <v>7644</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5719</v>
       </c>
       <c r="I14" t="n">
-        <v>5980</v>
+        <v>9711</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0197</v>
+        <v>0.1147</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.0858</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0471</v>
+        <v>0.1457</v>
       </c>
       <c r="M14" t="s">
         <v>70</v>
@@ -1472,22 +1472,22 @@
         <v>72</v>
       </c>
       <c r="P14" t="n">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="R14" t="n">
-        <v>508</v>
+        <v>220</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0178</v>
+        <v>0.0506</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.0239</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0565</v>
+        <v>0.0784</v>
       </c>
     </row>
     <row r="15">
@@ -1498,34 +1498,34 @@
         <v>43966</v>
       </c>
       <c r="C15" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D15" t="n">
-        <v>132318</v>
+        <v>84397</v>
       </c>
       <c r="E15" t="n">
-        <v>119933</v>
+        <v>76420</v>
       </c>
       <c r="F15" t="n">
-        <v>146073</v>
+        <v>92964</v>
       </c>
       <c r="G15" t="n">
-        <v>2984</v>
+        <v>10113</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>7978</v>
       </c>
       <c r="I15" t="n">
-        <v>6527</v>
+        <v>12511</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0231</v>
+        <v>0.1361</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.1074</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0505</v>
+        <v>0.1684</v>
       </c>
       <c r="M15" t="s">
         <v>74</v>
@@ -1537,22 +1537,22 @@
         <v>76</v>
       </c>
       <c r="P15" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="R15" t="n">
-        <v>636</v>
+        <v>331</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0258</v>
+        <v>0.0814</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.0531</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0695</v>
+        <v>0.1122</v>
       </c>
     </row>
   </sheetData>

--- a/belg/forecasts_20200501.xlsx
+++ b/belg/forecasts_20200501.xlsx
@@ -80,169 +80,169 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">1257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1292</t>
+    <t xml:space="preserve">5652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5900</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">1311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1360</t>
+    <t xml:space="preserve">5943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6302</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">1443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1509</t>
+    <t xml:space="preserve">6485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6973</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">1557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1637</t>
+    <t xml:space="preserve">6881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7485</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">1737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1839</t>
+    <t xml:space="preserve">7214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7910</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">1795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1917</t>
+    <t xml:space="preserve">7541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8342</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">1948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2089</t>
+    <t xml:space="preserve">7833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8734</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">2080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2253</t>
+    <t xml:space="preserve">8048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9030</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">2193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2382</t>
+    <t xml:space="preserve">8319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9392</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">2360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2569</t>
+    <t xml:space="preserve">8576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9811</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">2547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2799</t>
+    <t xml:space="preserve">8788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10110</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">2810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3083</t>
+    <t xml:space="preserve">8984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10427</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">2952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3246</t>
+    <t xml:space="preserve">9144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10616</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">3193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3531</t>
+    <t xml:space="preserve">9379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10960</t>
   </si>
 </sst>
 </file>
@@ -653,34 +653,34 @@
         <v>43953</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>19177</v>
+        <v>79770</v>
       </c>
       <c r="E2" t="n">
-        <v>18691</v>
+        <v>77785</v>
       </c>
       <c r="F2" t="n">
-        <v>19701</v>
+        <v>81976</v>
       </c>
       <c r="G2" t="n">
-        <v>1446</v>
+        <v>5651</v>
       </c>
       <c r="H2" t="n">
-        <v>960</v>
+        <v>3666</v>
       </c>
       <c r="I2" t="n">
-        <v>1970</v>
+        <v>7857</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0816</v>
+        <v>0.0762</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0541</v>
+        <v>0.0495</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1111</v>
+        <v>0.106</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -692,22 +692,22 @@
         <v>24</v>
       </c>
       <c r="P2" t="n">
-        <v>60</v>
+        <v>458</v>
       </c>
       <c r="Q2" t="n">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="R2" t="n">
-        <v>95</v>
+        <v>706</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0499</v>
+        <v>0.0881</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0243</v>
+        <v>0.0458</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0795</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="3">
@@ -718,34 +718,34 @@
         <v>43954</v>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>20970</v>
+        <v>84232</v>
       </c>
       <c r="E3" t="n">
-        <v>20235</v>
+        <v>80982</v>
       </c>
       <c r="F3" t="n">
-        <v>21748</v>
+        <v>87204</v>
       </c>
       <c r="G3" t="n">
-        <v>1792</v>
+        <v>4462</v>
       </c>
       <c r="H3" t="n">
-        <v>1248</v>
+        <v>2182</v>
       </c>
       <c r="I3" t="n">
-        <v>2314</v>
+        <v>6779</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0935</v>
+        <v>0.0559</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0651</v>
+        <v>0.0274</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1206</v>
+        <v>0.085</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -757,22 +757,22 @@
         <v>28</v>
       </c>
       <c r="P3" t="n">
-        <v>54</v>
+        <v>292</v>
       </c>
       <c r="Q3" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="R3" t="n">
-        <v>87</v>
+        <v>528</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0428</v>
+        <v>0.0516</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0173</v>
+        <v>0.0095</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0693</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="4">
@@ -783,34 +783,34 @@
         <v>43955</v>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>23938</v>
+        <v>90596</v>
       </c>
       <c r="E4" t="n">
-        <v>22933</v>
+        <v>86199</v>
       </c>
       <c r="F4" t="n">
-        <v>25048</v>
+        <v>94949</v>
       </c>
       <c r="G4" t="n">
-        <v>2968</v>
+        <v>6364</v>
       </c>
       <c r="H4" t="n">
-        <v>2380</v>
+        <v>3835</v>
       </c>
       <c r="I4" t="n">
-        <v>3603</v>
+        <v>8875</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1415</v>
+        <v>0.0756</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1135</v>
+        <v>0.0455</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1718</v>
+        <v>0.1054</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -822,22 +822,22 @@
         <v>32</v>
       </c>
       <c r="P4" t="n">
-        <v>133</v>
+        <v>541</v>
       </c>
       <c r="Q4" t="n">
-        <v>91</v>
+        <v>293</v>
       </c>
       <c r="R4" t="n">
-        <v>168</v>
+        <v>804</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1011</v>
+        <v>0.0911</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0696</v>
+        <v>0.0493</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1284</v>
+        <v>0.1353</v>
       </c>
     </row>
     <row r="5">
@@ -848,34 +848,34 @@
         <v>43956</v>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>26529</v>
+        <v>96269</v>
       </c>
       <c r="E5" t="n">
-        <v>25188</v>
+        <v>91436</v>
       </c>
       <c r="F5" t="n">
-        <v>27993</v>
+        <v>101519</v>
       </c>
       <c r="G5" t="n">
-        <v>2591</v>
+        <v>5673</v>
       </c>
       <c r="H5" t="n">
-        <v>1980</v>
+        <v>3199</v>
       </c>
       <c r="I5" t="n">
-        <v>3339</v>
+        <v>8277</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1083</v>
+        <v>0.0626</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0827</v>
+        <v>0.0353</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1395</v>
+        <v>0.0914</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -887,22 +887,22 @@
         <v>36</v>
       </c>
       <c r="P5" t="n">
-        <v>114</v>
+        <v>396</v>
       </c>
       <c r="Q5" t="n">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="R5" t="n">
-        <v>155</v>
+        <v>667</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0792</v>
+        <v>0.0611</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0499</v>
+        <v>0.0188</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1071</v>
+        <v>0.1029</v>
       </c>
     </row>
     <row r="6">
@@ -913,34 +913,34 @@
         <v>43957</v>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>30143</v>
+        <v>101262</v>
       </c>
       <c r="E6" t="n">
-        <v>28494</v>
+        <v>95423</v>
       </c>
       <c r="F6" t="n">
-        <v>31981</v>
+        <v>107378</v>
       </c>
       <c r="G6" t="n">
-        <v>3614</v>
+        <v>4993</v>
       </c>
       <c r="H6" t="n">
-        <v>2834</v>
+        <v>2243</v>
       </c>
       <c r="I6" t="n">
-        <v>4468</v>
+        <v>7740</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1362</v>
+        <v>0.0519</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1068</v>
+        <v>0.0233</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1684</v>
+        <v>0.0804</v>
       </c>
       <c r="M6" t="s">
         <v>38</v>
@@ -952,22 +952,22 @@
         <v>40</v>
       </c>
       <c r="P6" t="n">
-        <v>179</v>
+        <v>333</v>
       </c>
       <c r="Q6" t="n">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="R6" t="n">
-        <v>229</v>
+        <v>607</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1151</v>
+        <v>0.0484</v>
       </c>
       <c r="T6" t="n">
-        <v>0.088</v>
+        <v>0.0084</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1469</v>
+        <v>0.0882</v>
       </c>
     </row>
     <row r="7">
@@ -978,34 +978,34 @@
         <v>43958</v>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>32434</v>
+        <v>106035</v>
       </c>
       <c r="E7" t="n">
-        <v>30437</v>
+        <v>99213</v>
       </c>
       <c r="F7" t="n">
-        <v>34814</v>
+        <v>112764</v>
       </c>
       <c r="G7" t="n">
-        <v>2291</v>
+        <v>4773</v>
       </c>
       <c r="H7" t="n">
-        <v>1485</v>
+        <v>1909</v>
       </c>
       <c r="I7" t="n">
-        <v>3195</v>
+        <v>7512</v>
       </c>
       <c r="J7" t="n">
-        <v>0.076</v>
+        <v>0.0471</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0493</v>
+        <v>0.0188</v>
       </c>
       <c r="L7" t="n">
-        <v>0.106</v>
+        <v>0.0742</v>
       </c>
       <c r="M7" t="s">
         <v>42</v>
@@ -1017,22 +1017,22 @@
         <v>44</v>
       </c>
       <c r="P7" t="n">
-        <v>58</v>
+        <v>328</v>
       </c>
       <c r="Q7" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="R7" t="n">
-        <v>109</v>
+        <v>650</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0334</v>
+        <v>0.0454</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0082</v>
+        <v>0.0059</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0627</v>
+        <v>0.0901</v>
       </c>
     </row>
     <row r="8">
@@ -1043,34 +1043,34 @@
         <v>43959</v>
       </c>
       <c r="C8" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D8" t="n">
-        <v>36747</v>
+        <v>110346</v>
       </c>
       <c r="E8" t="n">
-        <v>34383</v>
+        <v>102774</v>
       </c>
       <c r="F8" t="n">
-        <v>39599</v>
+        <v>117875</v>
       </c>
       <c r="G8" t="n">
-        <v>4313</v>
+        <v>4311</v>
       </c>
       <c r="H8" t="n">
-        <v>3289</v>
+        <v>1319</v>
       </c>
       <c r="I8" t="n">
-        <v>5379</v>
+        <v>7192</v>
       </c>
       <c r="J8" t="n">
-        <v>0.133</v>
+        <v>0.0407</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1014</v>
+        <v>0.0124</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1658</v>
+        <v>0.0678</v>
       </c>
       <c r="M8" t="s">
         <v>46</v>
@@ -1082,22 +1082,22 @@
         <v>48</v>
       </c>
       <c r="P8" t="n">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="Q8" t="n">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>207</v>
+        <v>593</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0852</v>
+        <v>0.0386</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0572</v>
+        <v>0.0005</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1155</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="9">
@@ -1108,34 +1108,34 @@
         <v>43960</v>
       </c>
       <c r="C9" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D9" t="n">
-        <v>40842</v>
+        <v>113769</v>
       </c>
       <c r="E9" t="n">
-        <v>37971</v>
+        <v>105654</v>
       </c>
       <c r="F9" t="n">
-        <v>44122</v>
+        <v>121975</v>
       </c>
       <c r="G9" t="n">
-        <v>4095</v>
+        <v>3423</v>
       </c>
       <c r="H9" t="n">
-        <v>3024</v>
+        <v>342</v>
       </c>
       <c r="I9" t="n">
-        <v>5232</v>
+        <v>6530</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1114</v>
+        <v>0.031</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0823</v>
+        <v>0.0031</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1424</v>
+        <v>0.0592</v>
       </c>
       <c r="M9" t="s">
         <v>50</v>
@@ -1147,22 +1147,22 @@
         <v>52</v>
       </c>
       <c r="P9" t="n">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="Q9" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>192</v>
+        <v>558</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0682</v>
+        <v>0.0275</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0419</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0987</v>
+        <v>0.0713</v>
       </c>
     </row>
     <row r="10">
@@ -1173,34 +1173,34 @@
         <v>43961</v>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D10" t="n">
-        <v>45219</v>
+        <v>117334</v>
       </c>
       <c r="E10" t="n">
-        <v>41925</v>
+        <v>108605</v>
       </c>
       <c r="F10" t="n">
-        <v>48905</v>
+        <v>126503</v>
       </c>
       <c r="G10" t="n">
-        <v>4376</v>
+        <v>3565</v>
       </c>
       <c r="H10" t="n">
-        <v>3206</v>
+        <v>287</v>
       </c>
       <c r="I10" t="n">
-        <v>5636</v>
+        <v>6530</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1072</v>
+        <v>0.0313</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0785</v>
+        <v>0.0025</v>
       </c>
       <c r="L10" t="n">
-        <v>0.138</v>
+        <v>0.0574</v>
       </c>
       <c r="M10" t="s">
         <v>54</v>
@@ -1212,22 +1212,22 @@
         <v>56</v>
       </c>
       <c r="P10" t="n">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="Q10" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>601</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0541</v>
+        <v>0.0337</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0262</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0801</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="11">
@@ -1238,34 +1238,34 @@
         <v>43962</v>
       </c>
       <c r="C11" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D11" t="n">
-        <v>51105</v>
+        <v>120946</v>
       </c>
       <c r="E11" t="n">
-        <v>47080</v>
+        <v>111491</v>
       </c>
       <c r="F11" t="n">
-        <v>55737</v>
+        <v>131350</v>
       </c>
       <c r="G11" t="n">
-        <v>5887</v>
+        <v>3612</v>
       </c>
       <c r="H11" t="n">
-        <v>4523</v>
+        <v>455</v>
       </c>
       <c r="I11" t="n">
-        <v>7267</v>
+        <v>7054</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1302</v>
+        <v>0.0308</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1</v>
+        <v>0.0039</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1607</v>
+        <v>0.0601</v>
       </c>
       <c r="M11" t="s">
         <v>58</v>
@@ -1277,22 +1277,22 @@
         <v>60</v>
       </c>
       <c r="P11" t="n">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="Q11" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>232</v>
+        <v>600</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0763</v>
+        <v>0.031</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0495</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1059</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="12">
@@ -1303,34 +1303,34 @@
         <v>43963</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>58425</v>
+        <v>124123</v>
       </c>
       <c r="E12" t="n">
-        <v>53590</v>
+        <v>113944</v>
       </c>
       <c r="F12" t="n">
-        <v>63999</v>
+        <v>135721</v>
       </c>
       <c r="G12" t="n">
-        <v>7319</v>
+        <v>3177</v>
       </c>
       <c r="H12" t="n">
-        <v>5772</v>
+        <v>57</v>
       </c>
       <c r="I12" t="n">
-        <v>9001</v>
+        <v>6382</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1432</v>
+        <v>0.0263</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1129</v>
+        <v>0.0005</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1761</v>
+        <v>0.0528</v>
       </c>
       <c r="M12" t="s">
         <v>62</v>
@@ -1342,22 +1342,22 @@
         <v>64</v>
       </c>
       <c r="P12" t="n">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="Q12" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>262</v>
+        <v>581</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0792</v>
+        <v>0.0247</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0528</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1109</v>
+        <v>0.0678</v>
       </c>
     </row>
     <row r="13">
@@ -1368,34 +1368,34 @@
         <v>43964</v>
       </c>
       <c r="C13" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D13" t="n">
-        <v>66640</v>
+        <v>126837</v>
       </c>
       <c r="E13" t="n">
-        <v>61047</v>
+        <v>115786</v>
       </c>
       <c r="F13" t="n">
-        <v>72821</v>
+        <v>138729</v>
       </c>
       <c r="G13" t="n">
-        <v>8215</v>
+        <v>2714</v>
       </c>
       <c r="H13" t="n">
-        <v>6437</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>10187</v>
+        <v>6200</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1406</v>
+        <v>0.0219</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1102</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1744</v>
+        <v>0.05</v>
       </c>
       <c r="M13" t="s">
         <v>66</v>
@@ -1407,22 +1407,22 @@
         <v>68</v>
       </c>
       <c r="P13" t="n">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="Q13" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>342</v>
+        <v>543</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1032</v>
+        <v>0.0223</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0713</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1342</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="14">
@@ -1433,34 +1433,34 @@
         <v>43965</v>
       </c>
       <c r="C14" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D14" t="n">
-        <v>74284</v>
+        <v>129333</v>
       </c>
       <c r="E14" t="n">
-        <v>67559</v>
+        <v>118092</v>
       </c>
       <c r="F14" t="n">
-        <v>81555</v>
+        <v>142434</v>
       </c>
       <c r="G14" t="n">
-        <v>7644</v>
+        <v>2496</v>
       </c>
       <c r="H14" t="n">
-        <v>5719</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>9711</v>
+        <v>5980</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1147</v>
+        <v>0.0197</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0858</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1457</v>
+        <v>0.0471</v>
       </c>
       <c r="M14" t="s">
         <v>70</v>
@@ -1472,22 +1472,22 @@
         <v>72</v>
       </c>
       <c r="P14" t="n">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="Q14" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>220</v>
+        <v>508</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0506</v>
+        <v>0.0178</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0239</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0784</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="15">
@@ -1498,34 +1498,34 @@
         <v>43966</v>
       </c>
       <c r="C15" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D15" t="n">
-        <v>84397</v>
+        <v>132318</v>
       </c>
       <c r="E15" t="n">
-        <v>76420</v>
+        <v>119933</v>
       </c>
       <c r="F15" t="n">
-        <v>92964</v>
+        <v>146073</v>
       </c>
       <c r="G15" t="n">
-        <v>10113</v>
+        <v>2984</v>
       </c>
       <c r="H15" t="n">
-        <v>7978</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>12511</v>
+        <v>6527</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1361</v>
+        <v>0.0231</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1074</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1684</v>
+        <v>0.0505</v>
       </c>
       <c r="M15" t="s">
         <v>74</v>
@@ -1537,22 +1537,22 @@
         <v>76</v>
       </c>
       <c r="P15" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q15" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>331</v>
+        <v>636</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0814</v>
+        <v>0.0258</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0531</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1122</v>
+        <v>0.0695</v>
       </c>
     </row>
   </sheetData>
